--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1809443.815661486</v>
+        <v>1802563.150986128</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1734304.512827916</v>
+        <v>1734304.512827917</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2731752.266931186</v>
+        <v>2731752.266931185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>335.6186932117569</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>285.5453800016779</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>38.96794081168497</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>167.4599045712068</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>159.8521647280533</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>102.8983594870887</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,10 +953,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.0940561474153</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.51033041214341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>304.8341064702163</v>
+        <v>37.80714723456121</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.9025067912345</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>73.37668880174277</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.4298486781792</v>
+        <v>136.1537375235364</v>
       </c>
       <c r="H11" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>99.71884268366318</v>
@@ -1427,7 +1427,7 @@
         <v>251.11582180088</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.6612566572532</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.9404988026221</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>126.2786560849171</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>116.6963819301808</v>
       </c>
       <c r="J13" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I14" t="n">
-        <v>99.71884268366315</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U14" t="n">
-        <v>51.02481998799918</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>234.2184019327251</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H15" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I15" t="n">
-        <v>36.47348076827031</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.720873529840901</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S15" t="n">
         <v>143.1316361901922</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>143.5649496401403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>88.62306107614253</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>232.9769539509563</v>
       </c>
       <c r="G17" t="n">
-        <v>412.4298486781792</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I17" t="n">
-        <v>99.71884268366318</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V17" t="n">
-        <v>203.0589184824366</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,10 +1938,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H18" t="n">
-        <v>97.38999444196338</v>
+        <v>97.38999444196337</v>
       </c>
       <c r="I18" t="n">
-        <v>36.47348076827033</v>
+        <v>36.47348076827032</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.720873529840929</v>
+        <v>4.720873529840915</v>
       </c>
       <c r="S18" t="n">
         <v>143.1316361901922</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>74.81118028841657</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T19" t="n">
-        <v>136.456668163147</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2487377730621</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.4298486781792</v>
+        <v>136.1537375235373</v>
       </c>
       <c r="H20" t="n">
-        <v>118.3938258603505</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>99.71884268366318</v>
+        <v>99.71884268366315</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T20" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,10 +2175,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H21" t="n">
-        <v>97.38999444196338</v>
+        <v>97.38999444196337</v>
       </c>
       <c r="I21" t="n">
-        <v>36.47348076827033</v>
+        <v>36.47348076827031</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4.720873529840929</v>
+        <v>4.720873529840901</v>
       </c>
       <c r="S21" t="n">
         <v>143.1316361901922</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>86.72723724125832</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>102.0715332642372</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2336,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I23" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T23" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>194.5789352021106</v>
+        <v>264.9007326417887</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>60.2992493064674</v>
+        <v>135.350262672441</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>279.7078527376488</v>
+        <v>180.7839498299269</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I26" t="n">
         <v>99.71884268366318</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T26" t="n">
         <v>210.5197786803569</v>
@@ -2710,31 +2710,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.9404988026221</v>
+        <v>70.95641824748523</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>178.3352712668069</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T29" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>157.5819652634702</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U31" t="n">
-        <v>204.1207525841144</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>131.4955006315101</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.4298486781792</v>
+        <v>136.1537375235364</v>
       </c>
       <c r="H32" t="n">
-        <v>285.0783320102572</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S34" t="n">
         <v>201.5584371314712</v>
       </c>
       <c r="T34" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>224.6914693642785</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>101.7972727007078</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>329.7085443166475</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>203.2809469362567</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>412.4298486781792</v>
@@ -3284,7 +3284,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I35" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T35" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>142.9404988026221</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>2.249572729045425</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>46.11689906463055</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,10 +3509,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>38.87438750110206</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>412.4298486781792</v>
@@ -3521,7 +3521,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T38" t="n">
         <v>210.5197786803569</v>
@@ -3560,7 +3560,7 @@
         <v>251.11582180088</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>148.299363742911</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>46.30402943534435</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>14.23946433636177</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>151.0879428152282</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U41" t="n">
-        <v>18.8607752264143</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>64.24538273511182</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>85.43071812653156</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>379.4266954213119</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.71884268366321</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T44" t="n">
         <v>210.5197786803569</v>
@@ -4034,10 +4034,10 @@
         <v>251.11582180088</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>90.66428671861185</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.720873529840929</v>
+        <v>4.720873529840958</v>
       </c>
       <c r="S45" t="n">
         <v>143.1316361901922</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>64.13877966654996</v>
+        <v>70.95641824748525</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>222.4394153930256</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1139.146815977588</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1139.146815977588</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D2" t="n">
-        <v>1139.146815977588</v>
+        <v>567.286643657864</v>
       </c>
       <c r="E2" t="n">
-        <v>753.3585633793437</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>342.3726585897361</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1525.74665604171</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.1849863041093</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="C4" t="n">
-        <v>338.1849863041093</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>558.9775654476394</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>558.9775654476394</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.1849863041093</v>
+        <v>285.8510101265798</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.089911220684</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.127394280272</v>
+        <v>1326.843978732021</v>
       </c>
       <c r="D5" t="n">
-        <v>779.861695673522</v>
+        <v>968.5782801252706</v>
       </c>
       <c r="E5" t="n">
-        <v>779.861695673522</v>
+        <v>582.7900275270263</v>
       </c>
       <c r="F5" t="n">
-        <v>368.8757908839145</v>
+        <v>171.8041227374187</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>157.8807186760096</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.689751284806</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y5" t="n">
-        <v>1893.689751284806</v>
+        <v>1695.806495672433</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.6822058285749</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>613.8925638555099</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>613.8925638555099</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>613.8925638555099</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>613.8925638555099</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.3306706588146</v>
+        <v>359.2080756496231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2053.247973680502</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="C8" t="n">
-        <v>1684.28545674009</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="D8" t="n">
-        <v>1326.01975813334</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="E8" t="n">
-        <v>940.2315055350957</v>
+        <v>1074.547708327363</v>
       </c>
       <c r="F8" t="n">
-        <v>529.2456007454882</v>
+        <v>663.5618035377558</v>
       </c>
       <c r="G8" t="n">
-        <v>515.3221966840791</v>
+        <v>245.5979954359427</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.387305656314</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y8" t="n">
-        <v>2053.247973680502</v>
+        <v>1461.147548391485</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>654.0111167299266</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>654.0111167299266</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2440.378280303069</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C11" t="n">
-        <v>2071.415763362658</v>
+        <v>1479.164308343531</v>
       </c>
       <c r="D11" t="n">
-        <v>1713.150064755907</v>
+        <v>1120.898609736781</v>
       </c>
       <c r="E11" t="n">
-        <v>1327.361812157663</v>
+        <v>735.1103571385365</v>
       </c>
       <c r="F11" t="n">
-        <v>916.3759073680556</v>
+        <v>324.124452348929</v>
       </c>
       <c r="G11" t="n">
-        <v>499.78010062242</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H11" t="n">
         <v>186.595424547377</v>
@@ -5042,7 +5042,7 @@
         <v>315.4340448017692</v>
       </c>
       <c r="K11" t="n">
-        <v>780.2368617726825</v>
+        <v>780.2368617726827</v>
       </c>
       <c r="L11" t="n">
         <v>1409.142484443882</v>
@@ -5051,13 +5051,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N11" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O11" t="n">
-        <v>3467.276709192398</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P11" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q11" t="n">
         <v>4263.177005716608</v>
@@ -5075,16 +5075,16 @@
         <v>3682.163298198641</v>
       </c>
       <c r="V11" t="n">
-        <v>3682.163298198641</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W11" t="n">
-        <v>3329.394642928527</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X11" t="n">
-        <v>2955.928884667447</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y11" t="n">
-        <v>2826.978120367191</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J12" t="n">
-        <v>228.9031180673686</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K12" t="n">
-        <v>599.9915027548478</v>
+        <v>213.3407931253903</v>
       </c>
       <c r="L12" t="n">
-        <v>1160.370027405021</v>
+        <v>406.587375925139</v>
       </c>
       <c r="M12" t="n">
-        <v>1405.236542852139</v>
+        <v>651.4538913722566</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.992591255832</v>
+        <v>1391.758890376068</v>
       </c>
       <c r="O12" t="n">
-        <v>1897.156211352461</v>
+        <v>2002.577655892362</v>
       </c>
       <c r="P12" t="n">
         <v>2370.389053735493</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1140.551345253822</v>
+        <v>481.4152915672227</v>
       </c>
       <c r="C13" t="n">
-        <v>971.6151623259146</v>
+        <v>481.4152915672227</v>
       </c>
       <c r="D13" t="n">
-        <v>821.4985229135789</v>
+        <v>331.2986521548869</v>
       </c>
       <c r="E13" t="n">
-        <v>673.5854293311858</v>
+        <v>331.2986521548869</v>
       </c>
       <c r="F13" t="n">
-        <v>526.6954818332754</v>
+        <v>203.744454089314</v>
       </c>
       <c r="G13" t="n">
-        <v>358.3093198848604</v>
+        <v>203.744454089314</v>
       </c>
       <c r="H13" t="n">
-        <v>206.0167497752185</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I13" t="n">
-        <v>88.1416165124096</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J13" t="n">
         <v>85.86932082650513</v>
@@ -5221,28 +5221,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R13" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S13" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T13" t="n">
-        <v>1284.935687478692</v>
+        <v>736.0997797731095</v>
       </c>
       <c r="U13" t="n">
-        <v>1284.935687478692</v>
+        <v>736.0997797731095</v>
       </c>
       <c r="V13" t="n">
-        <v>1284.935687478692</v>
+        <v>481.4152915672227</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.935687478692</v>
+        <v>481.4152915672227</v>
       </c>
       <c r="X13" t="n">
-        <v>1284.935687478692</v>
+        <v>481.4152915672227</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.935687478692</v>
+        <v>481.4152915672227</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>186.595424547377</v>
       </c>
       <c r="I14" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J14" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K14" t="n">
-        <v>780.2368617726831</v>
+        <v>780.2368617726827</v>
       </c>
       <c r="L14" t="n">
         <v>1409.142484443882</v>
@@ -5291,34 +5291,34 @@
         <v>2838.872804512373</v>
       </c>
       <c r="O14" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P14" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q14" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R14" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S14" t="n">
-        <v>4148.461884543326</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T14" t="n">
-        <v>3935.815643452057</v>
+        <v>4080.819800233987</v>
       </c>
       <c r="U14" t="n">
-        <v>3884.275421241956</v>
+        <v>3827.167454980573</v>
       </c>
       <c r="V14" t="n">
-        <v>3553.212533898386</v>
+        <v>3827.167454980573</v>
       </c>
       <c r="W14" t="n">
-        <v>3200.443878628271</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="X14" t="n">
-        <v>2826.978120367191</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y14" t="n">
         <v>2826.978120367191</v>
@@ -5352,28 +5352,28 @@
         <v>122.7112205924348</v>
       </c>
       <c r="I15" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J15" t="n">
-        <v>104.0729930803639</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1613777678433</v>
+        <v>475.1613777678431</v>
       </c>
       <c r="L15" t="n">
-        <v>1035.539902418017</v>
+        <v>1035.539902418016</v>
       </c>
       <c r="M15" t="n">
-        <v>1280.406417865134</v>
+        <v>1741.454430977634</v>
       </c>
       <c r="N15" t="n">
-        <v>1546.162466268828</v>
+        <v>2007.210479381327</v>
       </c>
       <c r="O15" t="n">
-        <v>1897.15621135246</v>
+        <v>2228.10554881366</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.389053735492</v>
+        <v>2386.060250243154</v>
       </c>
       <c r="Q15" t="n">
         <v>2634.034907031697</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>399.8206044010185</v>
+        <v>443.3793370129049</v>
       </c>
       <c r="C16" t="n">
-        <v>230.8844214731116</v>
+        <v>443.3793370129049</v>
       </c>
       <c r="D16" t="n">
-        <v>85.86932082650516</v>
+        <v>293.2626976005691</v>
       </c>
       <c r="E16" t="n">
-        <v>85.86932082650516</v>
+        <v>293.2626976005691</v>
       </c>
       <c r="F16" t="n">
-        <v>85.86932082650516</v>
+        <v>203.744454089314</v>
       </c>
       <c r="G16" t="n">
-        <v>85.86932082650516</v>
+        <v>203.744454089314</v>
       </c>
       <c r="H16" t="n">
-        <v>85.86932082650516</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I16" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J16" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K16" t="n">
-        <v>212.0463858951881</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L16" t="n">
-        <v>429.0360225430047</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M16" t="n">
-        <v>668.2102932905836</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N16" t="n">
-        <v>907.1321508824187</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O16" t="n">
         <v>1111.798861477226</v>
@@ -5455,31 +5455,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q16" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R16" t="n">
-        <v>1284.935687478693</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S16" t="n">
-        <v>1284.935687478693</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T16" t="n">
-        <v>1284.935687478693</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="U16" t="n">
-        <v>1284.935687478693</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="V16" t="n">
-        <v>1030.251199272806</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="W16" t="n">
-        <v>1030.251199272806</v>
+        <v>671.3688879109222</v>
       </c>
       <c r="X16" t="n">
-        <v>802.2616483747884</v>
+        <v>443.3793370129049</v>
       </c>
       <c r="Y16" t="n">
-        <v>581.4690692312582</v>
+        <v>443.3793370129049</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2440.378280303069</v>
+        <v>1848.126825283944</v>
       </c>
       <c r="C17" t="n">
-        <v>2071.415763362658</v>
+        <v>1479.164308343532</v>
       </c>
       <c r="D17" t="n">
-        <v>1713.150064755907</v>
+        <v>1120.898609736782</v>
       </c>
       <c r="E17" t="n">
-        <v>1327.361812157663</v>
+        <v>735.1103571385374</v>
       </c>
       <c r="F17" t="n">
-        <v>916.3759073680556</v>
+        <v>499.78010062242</v>
       </c>
       <c r="G17" t="n">
         <v>499.78010062242</v>
@@ -5510,13 +5510,13 @@
         <v>186.595424547377</v>
       </c>
       <c r="I17" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J17" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017697</v>
       </c>
       <c r="K17" t="n">
-        <v>780.2368617726825</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L17" t="n">
         <v>1409.142484443882</v>
@@ -5525,40 +5525,40 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N17" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O17" t="n">
-        <v>3467.276709192398</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P17" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q17" t="n">
-        <v>4263.177005716608</v>
+        <v>4263.177005716609</v>
       </c>
       <c r="R17" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="S17" t="n">
-        <v>4148.461884543325</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="T17" t="n">
-        <v>4148.461884543325</v>
+        <v>3935.815643452057</v>
       </c>
       <c r="U17" t="n">
-        <v>4148.461884543325</v>
+        <v>3682.163298198642</v>
       </c>
       <c r="V17" t="n">
-        <v>3943.351865874197</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.583210604083</v>
+        <v>2998.331755584957</v>
       </c>
       <c r="X17" t="n">
-        <v>3217.117452343003</v>
+        <v>2624.865997323877</v>
       </c>
       <c r="Y17" t="n">
-        <v>2826.978120367191</v>
+        <v>2234.726665348066</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4225720727555</v>
+        <v>2646.853706366317</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9695427916286</v>
+        <v>2472.40067708519</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0351331303773</v>
+        <v>2323.466267423939</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7976781249217</v>
+        <v>2164.228812418483</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2631201518067</v>
+        <v>2017.694254445368</v>
       </c>
       <c r="G18" t="n">
-        <v>221.0849523519937</v>
+        <v>1880.516086645555</v>
       </c>
       <c r="H18" t="n">
-        <v>122.7112205924348</v>
+        <v>1782.142354885996</v>
       </c>
       <c r="I18" t="n">
-        <v>85.86932082650513</v>
+        <v>1745.300455120067</v>
       </c>
       <c r="J18" t="n">
-        <v>104.0729930803638</v>
+        <v>1763.504127373925</v>
       </c>
       <c r="K18" t="n">
-        <v>213.3407931253903</v>
+        <v>2134.592512061405</v>
       </c>
       <c r="L18" t="n">
-        <v>773.7193177755636</v>
+        <v>2694.971036711578</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.633846335181</v>
+        <v>3118.641933021907</v>
       </c>
       <c r="N18" t="n">
-        <v>1745.389894738874</v>
+        <v>3858.946932025718</v>
       </c>
       <c r="O18" t="n">
-        <v>2105.132726210951</v>
+        <v>4079.842001458051</v>
       </c>
       <c r="P18" t="n">
-        <v>2578.365568593983</v>
+        <v>4237.796702887545</v>
       </c>
       <c r="Q18" t="n">
-        <v>2634.034907031697</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="R18" t="n">
-        <v>2629.266347910645</v>
+        <v>4288.697482204207</v>
       </c>
       <c r="S18" t="n">
-        <v>2484.688937617521</v>
+        <v>4144.120071911083</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.760642759394</v>
+        <v>3948.191777052955</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.639173023254</v>
+        <v>3720.070307316816</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.487064791512</v>
+        <v>3484.918199085073</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.24970806331</v>
+        <v>3230.680842356872</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.398207857777</v>
+        <v>3022.829342151339</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.637909092824</v>
+        <v>2815.069043386385</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.86932082650513</v>
+        <v>161.4361696026835</v>
       </c>
       <c r="C19" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="D19" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="E19" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="F19" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="G19" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="H19" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I19" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J19" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K19" t="n">
         <v>212.046385895188</v>
       </c>
       <c r="L19" t="n">
-        <v>429.0360225430045</v>
+        <v>429.0360225430046</v>
       </c>
       <c r="M19" t="n">
-        <v>668.2102932905834</v>
+        <v>668.2102932905836</v>
       </c>
       <c r="N19" t="n">
-        <v>907.1321508824185</v>
+        <v>907.1321508824187</v>
       </c>
       <c r="O19" t="n">
         <v>1111.798861477226</v>
@@ -5692,31 +5692,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q19" t="n">
-        <v>1284.935687478692</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="R19" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S19" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478834</v>
       </c>
       <c r="T19" t="n">
-        <v>1147.100669132079</v>
+        <v>960.7860579478834</v>
       </c>
       <c r="U19" t="n">
-        <v>857.96052996737</v>
+        <v>671.6459187831742</v>
       </c>
       <c r="V19" t="n">
-        <v>603.2760417614832</v>
+        <v>671.6459187831742</v>
       </c>
       <c r="W19" t="n">
-        <v>313.8588717245225</v>
+        <v>382.2287487462136</v>
       </c>
       <c r="X19" t="n">
-        <v>85.86932082650513</v>
+        <v>382.2287487462136</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.86932082650513</v>
+        <v>161.4361696026835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2246.78332731929</v>
+        <v>1848.126825283944</v>
       </c>
       <c r="C20" t="n">
-        <v>1877.820810378878</v>
+        <v>1479.164308343532</v>
       </c>
       <c r="D20" t="n">
-        <v>1519.555111772127</v>
+        <v>1120.898609736782</v>
       </c>
       <c r="E20" t="n">
-        <v>1133.766859173883</v>
+        <v>735.1103571385374</v>
       </c>
       <c r="F20" t="n">
-        <v>722.7809543842757</v>
+        <v>324.1244523489299</v>
       </c>
       <c r="G20" t="n">
-        <v>306.1851476386402</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H20" t="n">
-        <v>186.5954245473771</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I20" t="n">
         <v>85.86932082650516</v>
       </c>
       <c r="J20" t="n">
-        <v>315.4340448017701</v>
+        <v>315.4340448017697</v>
       </c>
       <c r="K20" t="n">
-        <v>780.2368617726836</v>
+        <v>780.2368617726831</v>
       </c>
       <c r="L20" t="n">
-        <v>1409.142484443883</v>
+        <v>1409.142484443882</v>
       </c>
       <c r="M20" t="n">
-        <v>2125.527712279</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N20" t="n">
         <v>2838.872804512373</v>
@@ -5777,25 +5777,25 @@
         <v>4293.466041325258</v>
       </c>
       <c r="S20" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="T20" t="n">
-        <v>4080.819800233988</v>
+        <v>3935.815643452057</v>
       </c>
       <c r="U20" t="n">
-        <v>4080.819800233988</v>
+        <v>3682.163298198642</v>
       </c>
       <c r="V20" t="n">
-        <v>3749.756912890417</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W20" t="n">
-        <v>3396.988257620303</v>
+        <v>2998.331755584957</v>
       </c>
       <c r="X20" t="n">
-        <v>3023.522499359223</v>
+        <v>2624.865997323877</v>
       </c>
       <c r="Y20" t="n">
-        <v>2633.383167383412</v>
+        <v>2234.726665348066</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G21" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H21" t="n">
         <v>122.7112205924348</v>
@@ -5829,25 +5829,25 @@
         <v>85.86932082650516</v>
       </c>
       <c r="J21" t="n">
-        <v>104.0729930803638</v>
+        <v>104.0729930803639</v>
       </c>
       <c r="K21" t="n">
-        <v>213.3407931253903</v>
+        <v>459.490181260181</v>
       </c>
       <c r="L21" t="n">
-        <v>406.5873759251391</v>
+        <v>1019.868705910354</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.501904484757</v>
+        <v>1725.783234469972</v>
       </c>
       <c r="N21" t="n">
-        <v>1852.806903488568</v>
+        <v>1991.539282873665</v>
       </c>
       <c r="O21" t="n">
-        <v>2420.410867164489</v>
+        <v>2212.434352305998</v>
       </c>
       <c r="P21" t="n">
-        <v>2578.365568593983</v>
+        <v>2370.389053735492</v>
       </c>
       <c r="Q21" t="n">
         <v>2634.034907031697</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1056.946136580675</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="C22" t="n">
-        <v>969.3428666400101</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="D22" t="n">
-        <v>819.2262272276744</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="E22" t="n">
-        <v>671.3131336452813</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="F22" t="n">
-        <v>524.4231861473709</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="G22" t="n">
-        <v>356.0370241989559</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="H22" t="n">
-        <v>203.7444540893141</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I22" t="n">
         <v>85.86932082650516</v>
@@ -5911,16 +5911,16 @@
         <v>85.86932082650516</v>
       </c>
       <c r="K22" t="n">
-        <v>212.046385895188</v>
+        <v>212.0463858951881</v>
       </c>
       <c r="L22" t="n">
-        <v>429.0360225430045</v>
+        <v>429.0360225430047</v>
       </c>
       <c r="M22" t="n">
-        <v>668.2102932905834</v>
+        <v>668.2102932905836</v>
       </c>
       <c r="N22" t="n">
-        <v>907.1321508824185</v>
+        <v>907.1321508824187</v>
       </c>
       <c r="O22" t="n">
         <v>1111.798861477226</v>
@@ -5929,31 +5929,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q22" t="n">
-        <v>1284.935687478692</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="R22" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S22" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478834</v>
       </c>
       <c r="T22" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478834</v>
       </c>
       <c r="U22" t="n">
-        <v>1284.935687478692</v>
+        <v>671.6459187831742</v>
       </c>
       <c r="V22" t="n">
-        <v>1284.935687478692</v>
+        <v>416.9614305772874</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.935687478692</v>
+        <v>313.8588717245225</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.946136580675</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.946136580675</v>
+        <v>85.86932082650516</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2440.378280303069</v>
+        <v>1970.689659641786</v>
       </c>
       <c r="C23" t="n">
-        <v>2071.415763362658</v>
+        <v>1970.689659641786</v>
       </c>
       <c r="D23" t="n">
-        <v>1713.150064755907</v>
+        <v>1612.423961035036</v>
       </c>
       <c r="E23" t="n">
-        <v>1327.361812157663</v>
+        <v>1226.635708436791</v>
       </c>
       <c r="F23" t="n">
-        <v>916.3759073680556</v>
+        <v>815.6498036471836</v>
       </c>
       <c r="G23" t="n">
-        <v>499.78010062242</v>
+        <v>399.0539969015481</v>
       </c>
       <c r="H23" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I23" t="n">
         <v>85.86932082650513</v>
@@ -5990,7 +5990,7 @@
         <v>315.4340448017692</v>
       </c>
       <c r="K23" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L23" t="n">
         <v>1409.142484443882</v>
@@ -5999,13 +5999,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N23" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O23" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P23" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q23" t="n">
         <v>4263.177005716608</v>
@@ -6014,25 +6014,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S23" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T23" t="n">
-        <v>4080.819800233987</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U23" t="n">
-        <v>4080.819800233987</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V23" t="n">
-        <v>3749.756912890417</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W23" t="n">
-        <v>3396.988257620302</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X23" t="n">
-        <v>3023.522499359222</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y23" t="n">
-        <v>2826.978120367191</v>
+        <v>2357.289499705908</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J24" t="n">
-        <v>104.0729930803638</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K24" t="n">
-        <v>213.3407931253903</v>
+        <v>511.343982157069</v>
       </c>
       <c r="L24" t="n">
-        <v>406.587375925139</v>
+        <v>704.5905649568178</v>
       </c>
       <c r="M24" t="n">
-        <v>1112.501904484757</v>
+        <v>1410.505093516435</v>
       </c>
       <c r="N24" t="n">
-        <v>1852.806903488568</v>
+        <v>1676.261141920128</v>
       </c>
       <c r="O24" t="n">
-        <v>2420.410867164489</v>
+        <v>1897.156211352461</v>
       </c>
       <c r="P24" t="n">
-        <v>2578.365568593983</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q24" t="n">
         <v>2634.034907031697</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1030.251199272805</v>
+        <v>222.5867578693748</v>
       </c>
       <c r="C25" t="n">
-        <v>969.3428666400101</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="D25" t="n">
-        <v>819.2262272276744</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="E25" t="n">
-        <v>671.3131336452813</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="F25" t="n">
-        <v>524.4231861473709</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="G25" t="n">
-        <v>356.0370241989559</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H25" t="n">
-        <v>203.744454089314</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I25" t="n">
         <v>85.86932082650513</v>
@@ -6169,28 +6169,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R25" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S25" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T25" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="U25" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="V25" t="n">
-        <v>1030.251199272805</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="W25" t="n">
-        <v>1030.251199272805</v>
+        <v>671.3688879109222</v>
       </c>
       <c r="X25" t="n">
-        <v>1030.251199272805</v>
+        <v>443.3793370129049</v>
       </c>
       <c r="Y25" t="n">
-        <v>1030.251199272805</v>
+        <v>222.5867578693748</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1993.130982065875</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C26" t="n">
-        <v>1624.168465125463</v>
+        <v>1479.164308343531</v>
       </c>
       <c r="D26" t="n">
-        <v>1265.902766518712</v>
+        <v>1479.164308343531</v>
       </c>
       <c r="E26" t="n">
-        <v>880.1145139204682</v>
+        <v>1093.376055745287</v>
       </c>
       <c r="F26" t="n">
-        <v>469.1286091308606</v>
+        <v>682.3901509556795</v>
       </c>
       <c r="G26" t="n">
-        <v>186.595424547377</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H26" t="n">
         <v>186.595424547377</v>
@@ -6224,10 +6224,10 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J26" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K26" t="n">
-        <v>780.2368617726825</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L26" t="n">
         <v>1409.142484443882</v>
@@ -6239,10 +6239,10 @@
         <v>2838.872804512372</v>
       </c>
       <c r="O26" t="n">
-        <v>3467.276709192398</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P26" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q26" t="n">
         <v>4263.177005716608</v>
@@ -6251,25 +6251,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S26" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T26" t="n">
-        <v>4080.819800233987</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U26" t="n">
-        <v>3827.167454980573</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.104567637002</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W26" t="n">
-        <v>3143.335912366888</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X26" t="n">
-        <v>2769.870154105808</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y26" t="n">
-        <v>2379.730822129996</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2646.853706366316</v>
+        <v>987.4225720727555</v>
       </c>
       <c r="C27" t="n">
-        <v>2472.400677085189</v>
+        <v>812.9695427916286</v>
       </c>
       <c r="D27" t="n">
-        <v>2323.466267423938</v>
+        <v>664.0351331303773</v>
       </c>
       <c r="E27" t="n">
-        <v>2164.228812418482</v>
+        <v>504.7976781249217</v>
       </c>
       <c r="F27" t="n">
-        <v>2017.694254445368</v>
+        <v>358.2631201518067</v>
       </c>
       <c r="G27" t="n">
-        <v>1880.516086645554</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H27" t="n">
-        <v>1782.142354885995</v>
+        <v>122.7112205924348</v>
       </c>
       <c r="I27" t="n">
-        <v>1745.300455120066</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J27" t="n">
-        <v>1763.504127373925</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K27" t="n">
-        <v>1872.771927418951</v>
+        <v>213.3407931253903</v>
       </c>
       <c r="L27" t="n">
-        <v>2433.150452069124</v>
+        <v>406.587375925139</v>
       </c>
       <c r="M27" t="n">
-        <v>3139.064980628742</v>
+        <v>1112.501904484757</v>
       </c>
       <c r="N27" t="n">
-        <v>3469.023235941755</v>
+        <v>1378.25795288845</v>
       </c>
       <c r="O27" t="n">
-        <v>4079.84200145805</v>
+        <v>1897.156211352461</v>
       </c>
       <c r="P27" t="n">
-        <v>4237.796702887544</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q27" t="n">
-        <v>4293.466041325257</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="R27" t="n">
-        <v>4288.697482204206</v>
+        <v>2629.266347910645</v>
       </c>
       <c r="S27" t="n">
-        <v>4144.120071911082</v>
+        <v>2484.688937617521</v>
       </c>
       <c r="T27" t="n">
-        <v>3948.191777052954</v>
+        <v>2288.760642759394</v>
       </c>
       <c r="U27" t="n">
-        <v>3720.070307316815</v>
+        <v>2060.639173023254</v>
       </c>
       <c r="V27" t="n">
-        <v>3484.918199085073</v>
+        <v>1825.487064791512</v>
       </c>
       <c r="W27" t="n">
-        <v>3230.680842356871</v>
+        <v>1571.24970806331</v>
       </c>
       <c r="X27" t="n">
-        <v>3022.829342151338</v>
+        <v>1363.398207857777</v>
       </c>
       <c r="Y27" t="n">
-        <v>2815.069043386384</v>
+        <v>1155.637909092824</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1140.551345253822</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="C28" t="n">
-        <v>971.6151623259146</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="D28" t="n">
-        <v>821.4985229135789</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="E28" t="n">
-        <v>673.5854293311858</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="F28" t="n">
-        <v>526.6954818332754</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="G28" t="n">
-        <v>358.3093198848604</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H28" t="n">
-        <v>206.0167497752185</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I28" t="n">
-        <v>88.1416165124096</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J28" t="n">
         <v>85.86932082650513</v>
@@ -6406,28 +6406,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R28" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S28" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.935687478692</v>
+        <v>736.0997797731095</v>
       </c>
       <c r="U28" t="n">
-        <v>1284.935687478692</v>
+        <v>446.9596406084003</v>
       </c>
       <c r="V28" t="n">
-        <v>1284.935687478692</v>
+        <v>446.9596406084003</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.935687478692</v>
+        <v>157.5424705714397</v>
       </c>
       <c r="X28" t="n">
-        <v>1284.935687478692</v>
+        <v>157.5424705714397</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.935687478692</v>
+        <v>157.5424705714397</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2440.378280303069</v>
+        <v>2054.590027704825</v>
       </c>
       <c r="C29" t="n">
-        <v>2071.415763362658</v>
+        <v>1685.627510764414</v>
       </c>
       <c r="D29" t="n">
-        <v>1713.150064755907</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="E29" t="n">
         <v>1327.361812157663</v>
@@ -6461,10 +6461,10 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J29" t="n">
-        <v>315.4340448017695</v>
+        <v>315.4340448017699</v>
       </c>
       <c r="K29" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726833</v>
       </c>
       <c r="L29" t="n">
         <v>1409.142484443882</v>
@@ -6488,25 +6488,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S29" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T29" t="n">
-        <v>4080.819800233987</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U29" t="n">
-        <v>4080.819800233987</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V29" t="n">
-        <v>3749.756912890417</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W29" t="n">
-        <v>3590.583210604083</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X29" t="n">
-        <v>3217.117452343003</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y29" t="n">
-        <v>2826.978120367191</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2646.853706366316</v>
+        <v>987.4225720727555</v>
       </c>
       <c r="C30" t="n">
-        <v>2472.400677085189</v>
+        <v>812.9695427916286</v>
       </c>
       <c r="D30" t="n">
-        <v>2323.466267423938</v>
+        <v>664.0351331303773</v>
       </c>
       <c r="E30" t="n">
-        <v>2164.228812418482</v>
+        <v>504.7976781249217</v>
       </c>
       <c r="F30" t="n">
-        <v>2017.694254445368</v>
+        <v>358.2631201518067</v>
       </c>
       <c r="G30" t="n">
-        <v>1880.516086645554</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H30" t="n">
-        <v>1782.142354885995</v>
+        <v>122.7112205924348</v>
       </c>
       <c r="I30" t="n">
-        <v>1745.300455120066</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J30" t="n">
-        <v>1763.504127373925</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K30" t="n">
-        <v>1872.771927418951</v>
+        <v>338.687617677517</v>
       </c>
       <c r="L30" t="n">
-        <v>2433.150452069124</v>
+        <v>899.0661423276903</v>
       </c>
       <c r="M30" t="n">
-        <v>3139.064980628742</v>
+        <v>1143.932657774808</v>
       </c>
       <c r="N30" t="n">
-        <v>3404.821029032435</v>
+        <v>1884.237656778619</v>
       </c>
       <c r="O30" t="n">
-        <v>4015.63979454873</v>
+        <v>2105.132726210951</v>
       </c>
       <c r="P30" t="n">
-        <v>4237.796702887544</v>
+        <v>2578.365568593983</v>
       </c>
       <c r="Q30" t="n">
-        <v>4293.466041325257</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="R30" t="n">
-        <v>4288.697482204206</v>
+        <v>2629.266347910645</v>
       </c>
       <c r="S30" t="n">
-        <v>4144.120071911082</v>
+        <v>2484.688937617521</v>
       </c>
       <c r="T30" t="n">
-        <v>3948.191777052954</v>
+        <v>2288.760642759394</v>
       </c>
       <c r="U30" t="n">
-        <v>3720.070307316815</v>
+        <v>2060.639173023254</v>
       </c>
       <c r="V30" t="n">
-        <v>3484.918199085073</v>
+        <v>1825.487064791512</v>
       </c>
       <c r="W30" t="n">
-        <v>3230.680842356871</v>
+        <v>1571.24970806331</v>
       </c>
       <c r="X30" t="n">
-        <v>3022.829342151338</v>
+        <v>1363.398207857777</v>
       </c>
       <c r="Y30" t="n">
-        <v>2815.069043386384</v>
+        <v>1155.637909092824</v>
       </c>
     </row>
     <row r="31">
@@ -6643,25 +6643,25 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R31" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S31" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T31" t="n">
-        <v>1284.935687478692</v>
+        <v>736.0997797731095</v>
       </c>
       <c r="U31" t="n">
-        <v>1078.7531091109</v>
+        <v>736.0997797731095</v>
       </c>
       <c r="V31" t="n">
-        <v>824.0686209050132</v>
+        <v>736.0997797731095</v>
       </c>
       <c r="W31" t="n">
-        <v>534.6514508680525</v>
+        <v>446.6826097361489</v>
       </c>
       <c r="X31" t="n">
-        <v>306.6618999700352</v>
+        <v>218.6930588381315</v>
       </c>
       <c r="Y31" t="n">
         <v>85.86932082650513</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2314.425411628627</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C32" t="n">
-        <v>1945.462894688215</v>
+        <v>1479.164308343531</v>
       </c>
       <c r="D32" t="n">
-        <v>1587.197196081464</v>
+        <v>1120.898609736781</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.40894348322</v>
+        <v>735.1103571385365</v>
       </c>
       <c r="F32" t="n">
-        <v>790.4230386936126</v>
+        <v>324.124452348929</v>
       </c>
       <c r="G32" t="n">
-        <v>373.8272319479771</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H32" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I32" t="n">
         <v>85.86932082650513</v>
@@ -6728,22 +6728,22 @@
         <v>4148.461884543325</v>
       </c>
       <c r="T32" t="n">
-        <v>4148.461884543325</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U32" t="n">
-        <v>4148.461884543325</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V32" t="n">
-        <v>3817.398997199754</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W32" t="n">
-        <v>3464.63034192964</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X32" t="n">
-        <v>3091.16458366856</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y32" t="n">
-        <v>2701.025251692748</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J33" t="n">
-        <v>104.0729930803638</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K33" t="n">
-        <v>213.3407931253903</v>
+        <v>338.170918112395</v>
       </c>
       <c r="L33" t="n">
-        <v>406.587375925139</v>
+        <v>531.4175009121439</v>
       </c>
       <c r="M33" t="n">
-        <v>1112.501904484757</v>
+        <v>1237.332029471761</v>
       </c>
       <c r="N33" t="n">
-        <v>1852.806903488568</v>
+        <v>1884.237656778619</v>
       </c>
       <c r="O33" t="n">
-        <v>2420.410867164489</v>
+        <v>2105.132726210951</v>
       </c>
       <c r="P33" t="n">
         <v>2578.365568593983</v>
@@ -6880,25 +6880,25 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R34" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S34" t="n">
-        <v>1081.341306537812</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T34" t="n">
-        <v>856.655028363039</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="U34" t="n">
-        <v>567.5148891983299</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="V34" t="n">
-        <v>312.8304009924431</v>
+        <v>706.1015697419961</v>
       </c>
       <c r="W34" t="n">
-        <v>85.86932082650513</v>
+        <v>416.6843997050354</v>
       </c>
       <c r="X34" t="n">
-        <v>85.86932082650513</v>
+        <v>188.6948488070181</v>
       </c>
       <c r="Y34" t="n">
         <v>85.86932082650513</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2234.726665348065</v>
+        <v>2314.425411628627</v>
       </c>
       <c r="C35" t="n">
-        <v>1865.764148407653</v>
+        <v>1945.462894688215</v>
       </c>
       <c r="D35" t="n">
-        <v>1507.498449800903</v>
+        <v>1612.423961035036</v>
       </c>
       <c r="E35" t="n">
-        <v>1121.710197202658</v>
+        <v>1226.635708436791</v>
       </c>
       <c r="F35" t="n">
-        <v>916.3759073680556</v>
+        <v>815.6498036471836</v>
       </c>
       <c r="G35" t="n">
-        <v>499.78010062242</v>
+        <v>399.0539969015481</v>
       </c>
       <c r="H35" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I35" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="J35" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K35" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L35" t="n">
         <v>1409.142484443882</v>
@@ -6947,13 +6947,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N35" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O35" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P35" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q35" t="n">
         <v>4263.177005716608</v>
@@ -6965,22 +6965,22 @@
         <v>4148.461884543325</v>
       </c>
       <c r="T35" t="n">
-        <v>3935.815643452056</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="U35" t="n">
-        <v>3682.163298198641</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="V35" t="n">
-        <v>3351.100410855071</v>
+        <v>3817.398997199754</v>
       </c>
       <c r="W35" t="n">
-        <v>2998.331755584956</v>
+        <v>3464.63034192964</v>
       </c>
       <c r="X35" t="n">
-        <v>2624.865997323876</v>
+        <v>3091.16458366856</v>
       </c>
       <c r="Y35" t="n">
-        <v>2234.726665348065</v>
+        <v>2701.025251692748</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4225720727555</v>
+        <v>2646.853706366316</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9695427916286</v>
+        <v>2472.400677085189</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0351331303773</v>
+        <v>2323.466267423938</v>
       </c>
       <c r="E36" t="n">
-        <v>504.7976781249217</v>
+        <v>2164.228812418482</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2631201518067</v>
+        <v>2017.694254445368</v>
       </c>
       <c r="G36" t="n">
-        <v>221.0849523519937</v>
+        <v>1880.516086645554</v>
       </c>
       <c r="H36" t="n">
-        <v>122.7112205924348</v>
+        <v>1782.142354885995</v>
       </c>
       <c r="I36" t="n">
-        <v>85.86932082650513</v>
+        <v>1745.300455120066</v>
       </c>
       <c r="J36" t="n">
-        <v>104.0729930803638</v>
+        <v>1888.334252360929</v>
       </c>
       <c r="K36" t="n">
-        <v>213.3407931253903</v>
+        <v>1997.602052405956</v>
       </c>
       <c r="L36" t="n">
-        <v>406.587375925139</v>
+        <v>2557.980577056129</v>
       </c>
       <c r="M36" t="n">
-        <v>1069.287102644383</v>
+        <v>2802.847092503247</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.592101648194</v>
+        <v>3335.692276213689</v>
       </c>
       <c r="O36" t="n">
-        <v>2420.410867164489</v>
+        <v>3556.587345646021</v>
       </c>
       <c r="P36" t="n">
-        <v>2578.365568593983</v>
+        <v>4029.820188029053</v>
       </c>
       <c r="Q36" t="n">
-        <v>2634.034907031697</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R36" t="n">
-        <v>2629.266347910645</v>
+        <v>4288.697482204206</v>
       </c>
       <c r="S36" t="n">
-        <v>2484.688937617521</v>
+        <v>4144.120071911082</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.760642759394</v>
+        <v>3948.191777052954</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.639173023254</v>
+        <v>3720.070307316815</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.487064791512</v>
+        <v>3484.918199085073</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.24970806331</v>
+        <v>3230.680842356871</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.398207857777</v>
+        <v>3022.829342151338</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.637909092824</v>
+        <v>2815.069043386384</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1140.551345253822</v>
+        <v>257.0777994403165</v>
       </c>
       <c r="C37" t="n">
-        <v>971.6151623259146</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="D37" t="n">
-        <v>821.4985229135789</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="E37" t="n">
-        <v>673.5854293311858</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="F37" t="n">
-        <v>526.6954818332754</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="G37" t="n">
-        <v>358.3093198848604</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="H37" t="n">
-        <v>206.0167497752185</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="I37" t="n">
         <v>88.1416165124096</v>
@@ -7117,28 +7117,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R37" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S37" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T37" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="U37" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="V37" t="n">
-        <v>1284.935687478692</v>
+        <v>706.1015697419961</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.935687478692</v>
+        <v>706.1015697419961</v>
       </c>
       <c r="X37" t="n">
-        <v>1284.935687478692</v>
+        <v>659.5188434140864</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.935687478692</v>
+        <v>438.7262642705563</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1993.130982065875</v>
+        <v>2029.392375513462</v>
       </c>
       <c r="C38" t="n">
-        <v>1624.168465125463</v>
+        <v>1660.42985857305</v>
       </c>
       <c r="D38" t="n">
-        <v>1265.902766518712</v>
+        <v>1302.1641599663</v>
       </c>
       <c r="E38" t="n">
-        <v>1226.635708436791</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="F38" t="n">
-        <v>815.6498036471836</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G38" t="n">
-        <v>399.0539969015481</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H38" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I38" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="J38" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017695</v>
       </c>
       <c r="K38" t="n">
-        <v>780.2368617726827</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L38" t="n">
         <v>1409.142484443882</v>
@@ -7199,25 +7199,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S38" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T38" t="n">
-        <v>4080.819800233987</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U38" t="n">
-        <v>3827.167454980573</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.104567637002</v>
+        <v>3532.36596108459</v>
       </c>
       <c r="W38" t="n">
-        <v>3143.335912366888</v>
+        <v>3179.597305814475</v>
       </c>
       <c r="X38" t="n">
-        <v>2769.870154105808</v>
+        <v>2806.131547553396</v>
       </c>
       <c r="Y38" t="n">
-        <v>2379.730822129996</v>
+        <v>2415.992215577584</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4225720727555</v>
+        <v>2646.853706366316</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9695427916286</v>
+        <v>2472.400677085189</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0351331303773</v>
+        <v>2323.466267423938</v>
       </c>
       <c r="E39" t="n">
-        <v>504.7976781249217</v>
+        <v>2164.228812418482</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2631201518067</v>
+        <v>2017.694254445368</v>
       </c>
       <c r="G39" t="n">
-        <v>221.0849523519937</v>
+        <v>1880.516086645554</v>
       </c>
       <c r="H39" t="n">
-        <v>122.7112205924348</v>
+        <v>1782.142354885995</v>
       </c>
       <c r="I39" t="n">
-        <v>85.86932082650513</v>
+        <v>1745.300455120066</v>
       </c>
       <c r="J39" t="n">
-        <v>104.0729930803638</v>
+        <v>1763.504127373925</v>
       </c>
       <c r="K39" t="n">
-        <v>213.3407931253903</v>
+        <v>1904.202680709002</v>
       </c>
       <c r="L39" t="n">
-        <v>773.7193177755636</v>
+        <v>2097.449263508751</v>
       </c>
       <c r="M39" t="n">
-        <v>1018.585833222681</v>
+        <v>2803.363792068368</v>
       </c>
       <c r="N39" t="n">
-        <v>1758.890832226492</v>
+        <v>3543.668791072179</v>
       </c>
       <c r="O39" t="n">
-        <v>2369.709597742787</v>
+        <v>3764.563860504512</v>
       </c>
       <c r="P39" t="n">
-        <v>2578.365568593983</v>
+        <v>4237.796702887544</v>
       </c>
       <c r="Q39" t="n">
-        <v>2634.034907031697</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="R39" t="n">
-        <v>2629.266347910645</v>
+        <v>4288.697482204206</v>
       </c>
       <c r="S39" t="n">
-        <v>2484.688937617521</v>
+        <v>4144.120071911082</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.760642759394</v>
+        <v>3948.191777052954</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.639173023254</v>
+        <v>3720.070307316815</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.487064791512</v>
+        <v>3484.918199085073</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.24970806331</v>
+        <v>3230.680842356871</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.398207857777</v>
+        <v>3022.829342151338</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.637909092824</v>
+        <v>2815.069043386384</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3891.024997351487</v>
+        <v>3460.2242439177</v>
       </c>
       <c r="C40" t="n">
-        <v>3722.08881442358</v>
+        <v>3291.288060989793</v>
       </c>
       <c r="D40" t="n">
-        <v>3571.972175011244</v>
+        <v>3141.171421577458</v>
       </c>
       <c r="E40" t="n">
-        <v>3424.059081428851</v>
+        <v>3141.171421577458</v>
       </c>
       <c r="F40" t="n">
-        <v>3277.169133930941</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="G40" t="n">
-        <v>3108.782971982526</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="H40" t="n">
         <v>3094.39967467307</v>
@@ -7363,19 +7363,19 @@
         <v>4293.466041325257</v>
       </c>
       <c r="U40" t="n">
-        <v>4293.466041325257</v>
+        <v>4004.325902160548</v>
       </c>
       <c r="V40" t="n">
-        <v>4293.466041325257</v>
+        <v>3749.641413954661</v>
       </c>
       <c r="W40" t="n">
-        <v>4293.466041325257</v>
+        <v>3460.2242439177</v>
       </c>
       <c r="X40" t="n">
-        <v>4293.466041325257</v>
+        <v>3460.2242439177</v>
       </c>
       <c r="Y40" t="n">
-        <v>4072.673462181727</v>
+        <v>3460.2242439177</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2440.378280303069</v>
+        <v>2234.726665348065</v>
       </c>
       <c r="C41" t="n">
-        <v>2071.415763362658</v>
+        <v>1865.764148407653</v>
       </c>
       <c r="D41" t="n">
         <v>1713.150064755907</v>
@@ -7412,7 +7412,7 @@
         <v>315.4340448017692</v>
       </c>
       <c r="K41" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L41" t="n">
         <v>1409.142484443882</v>
@@ -7421,13 +7421,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N41" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O41" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P41" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q41" t="n">
         <v>4263.177005716608</v>
@@ -7436,25 +7436,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S41" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T41" t="n">
-        <v>4293.466041325257</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U41" t="n">
-        <v>4274.414753217768</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V41" t="n">
-        <v>3943.351865874197</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W41" t="n">
-        <v>3590.583210604083</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X41" t="n">
-        <v>3217.117452343003</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y41" t="n">
-        <v>2826.978120367191</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J42" t="n">
-        <v>104.0729930803638</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K42" t="n">
-        <v>213.3407931253903</v>
+        <v>338.170918112395</v>
       </c>
       <c r="L42" t="n">
-        <v>406.587375925139</v>
+        <v>531.4175009121439</v>
       </c>
       <c r="M42" t="n">
         <v>1069.287102644383</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3891.024997351487</v>
+        <v>519.5705845151313</v>
       </c>
       <c r="C43" t="n">
-        <v>3722.08881442358</v>
+        <v>350.6344015872244</v>
       </c>
       <c r="D43" t="n">
-        <v>3571.972175011244</v>
+        <v>350.6344015872244</v>
       </c>
       <c r="E43" t="n">
-        <v>3424.059081428851</v>
+        <v>350.6344015872244</v>
       </c>
       <c r="F43" t="n">
-        <v>3277.169133930941</v>
+        <v>203.744454089314</v>
       </c>
       <c r="G43" t="n">
-        <v>3212.274807935878</v>
+        <v>203.744454089314</v>
       </c>
       <c r="H43" t="n">
-        <v>3212.274807935878</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I43" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J43" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K43" t="n">
-        <v>3220.576739741752</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L43" t="n">
-        <v>3437.566376389569</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M43" t="n">
-        <v>3676.740647137148</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N43" t="n">
-        <v>3915.662504728983</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O43" t="n">
-        <v>4120.32921532379</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P43" t="n">
-        <v>4271.936261275595</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q43" t="n">
-        <v>4293.466041325257</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R43" t="n">
-        <v>4293.466041325257</v>
+        <v>1198.642032805428</v>
       </c>
       <c r="S43" t="n">
-        <v>4293.466041325257</v>
+        <v>995.0476518645482</v>
       </c>
       <c r="T43" t="n">
-        <v>4293.466041325257</v>
+        <v>995.0476518645482</v>
       </c>
       <c r="U43" t="n">
-        <v>4293.466041325257</v>
+        <v>995.0476518645482</v>
       </c>
       <c r="V43" t="n">
-        <v>4293.466041325257</v>
+        <v>740.3631636586614</v>
       </c>
       <c r="W43" t="n">
-        <v>4293.466041325257</v>
+        <v>740.3631636586614</v>
       </c>
       <c r="X43" t="n">
-        <v>4293.466041325257</v>
+        <v>740.3631636586614</v>
       </c>
       <c r="Y43" t="n">
-        <v>4072.673462181727</v>
+        <v>519.5705845151313</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1993.130982065875</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C44" t="n">
-        <v>1624.168465125463</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D44" t="n">
-        <v>1265.902766518712</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E44" t="n">
-        <v>880.1145139204682</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F44" t="n">
-        <v>469.1286091308606</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G44" t="n">
-        <v>85.86932082650513</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H44" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I44" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J44" t="n">
-        <v>315.4340448017699</v>
+        <v>315.4340448017695</v>
       </c>
       <c r="K44" t="n">
-        <v>780.2368617726833</v>
+        <v>780.2368617726828</v>
       </c>
       <c r="L44" t="n">
-        <v>1409.142484443882</v>
+        <v>1409.142484443881</v>
       </c>
       <c r="M44" t="n">
-        <v>2125.527712278999</v>
+        <v>2125.527712278998</v>
       </c>
       <c r="N44" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O44" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P44" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q44" t="n">
-        <v>4263.177005716608</v>
+        <v>4263.177005716607</v>
       </c>
       <c r="R44" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="S44" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543324</v>
       </c>
       <c r="T44" t="n">
-        <v>4080.819800233987</v>
+        <v>3935.815643452055</v>
       </c>
       <c r="U44" t="n">
-        <v>3827.167454980573</v>
+        <v>3682.16329819864</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.104567637002</v>
+        <v>3682.16329819864</v>
       </c>
       <c r="W44" t="n">
-        <v>3143.335912366888</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="X44" t="n">
-        <v>2769.870154105808</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y44" t="n">
-        <v>2379.730822129996</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>122.7112205924348</v>
       </c>
       <c r="I45" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J45" t="n">
         <v>104.0729930803638</v>
       </c>
       <c r="K45" t="n">
-        <v>213.3407931253903</v>
+        <v>475.1613777678431</v>
       </c>
       <c r="L45" t="n">
-        <v>406.587375925139</v>
+        <v>668.4079605675918</v>
       </c>
       <c r="M45" t="n">
-        <v>1112.501904484757</v>
+        <v>1374.322489127209</v>
       </c>
       <c r="N45" t="n">
-        <v>1852.806903488568</v>
+        <v>2114.627488131021</v>
       </c>
       <c r="O45" t="n">
-        <v>2420.410867164489</v>
+        <v>2335.522557563353</v>
       </c>
       <c r="P45" t="n">
-        <v>2578.365568593983</v>
+        <v>2493.477258992847</v>
       </c>
       <c r="Q45" t="n">
         <v>2634.034907031697</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>736.0997797731095</v>
+        <v>157.5424705714397</v>
       </c>
       <c r="C46" t="n">
-        <v>736.0997797731095</v>
+        <v>157.5424705714397</v>
       </c>
       <c r="D46" t="n">
-        <v>736.0997797731095</v>
+        <v>157.5424705714397</v>
       </c>
       <c r="E46" t="n">
-        <v>671.3131336452813</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="F46" t="n">
-        <v>524.4231861473709</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="G46" t="n">
-        <v>356.0370241989559</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="H46" t="n">
-        <v>203.744454089314</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="I46" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J46" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="K46" t="n">
-        <v>212.046385895188</v>
+        <v>212.0463858951879</v>
       </c>
       <c r="L46" t="n">
-        <v>429.0360225430045</v>
+        <v>429.0360225430044</v>
       </c>
       <c r="M46" t="n">
         <v>668.2102932905834</v>
@@ -7837,19 +7837,19 @@
         <v>736.0997797731095</v>
       </c>
       <c r="U46" t="n">
-        <v>736.0997797731095</v>
+        <v>446.9596406084003</v>
       </c>
       <c r="V46" t="n">
-        <v>736.0997797731095</v>
+        <v>446.9596406084003</v>
       </c>
       <c r="W46" t="n">
-        <v>736.0997797731095</v>
+        <v>157.5424705714397</v>
       </c>
       <c r="X46" t="n">
-        <v>736.0997797731095</v>
+        <v>157.5424705714397</v>
       </c>
       <c r="Y46" t="n">
-        <v>736.0997797731095</v>
+        <v>157.5424705714397</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>5.321768347774196</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>211.976461023875</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>131.4128036881819</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>194.247796313969</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>180.6104857204153</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>140.2502646866106</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>248.6357455906976</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>350.2110042864531</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>174.9222869138122</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>350.2110042864536</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,22 +9957,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>64.85071404981812</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>301.0133222542208</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720741</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.5219187526484461</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>64.85071404981801</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>384.999574649661</v>
       </c>
       <c r="O33" t="n">
-        <v>350.2110042864536</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>422.0537487597238</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>269.7870053603525</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10902,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>31.74823564651629</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>51.21340345626439</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>422.0537487597238</v>
+        <v>295.9627134193148</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720741</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>350.2110042864536</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>85.74576727387489</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>276.2761111546428</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.5766819988004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.89148137931519</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>19.14239193801413</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2487377730621</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>200.0910018128808</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>115.0225667846879</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>5.050523378072029</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>56.79798694678871</v>
       </c>
       <c r="G16" t="n">
         <v>166.7023003289308</v>
@@ -23671,10 +23671,10 @@
         <v>150.7696444085454</v>
       </c>
       <c r="I16" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.249572729045397</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>222.4394153930256</v>
@@ -23710,16 +23710,16 @@
         <v>286.2487377730621</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>173.8990917907552</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>124.6933399876984</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>92.43564081021127</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23911,7 +23911,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J19" t="n">
-        <v>2.249572729045425</v>
+        <v>2.249572729045411</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>85.98274722987858</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>276.2761111546419</v>
       </c>
       <c r="H20" t="n">
-        <v>191.659003453942</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,28 +24127,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>80.51958385736951</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J22" t="n">
-        <v>2.249572729045425</v>
+        <v>2.249572729045397</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>222.4394153930256</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>184.4514650723538</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24254,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>191.659003453943</v>
+        <v>121.3372060142648</v>
       </c>
     </row>
     <row r="24">
@@ -24364,25 +24364,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>106.9475717921604</v>
+        <v>31.89655842618686</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J25" t="n">
         <v>2.249572729045425</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>222.4394153930256</v>
@@ -24421,16 +24421,16 @@
         <v>286.2487377730621</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>132.7219959405304</v>
+        <v>231.6458988482523</v>
       </c>
       <c r="H26" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.89148137931519</v>
+        <v>108.8755619344521</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>204.3985703966737</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24728,19 +24728,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>191.6590034539428</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.12798518894772</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>87.08915272058465</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24929,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>276.2761111546428</v>
       </c>
       <c r="H32" t="n">
-        <v>24.97449730403525</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I32" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,10 +24968,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>61.83152897231247</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>116.787380651387</v>
       </c>
     </row>
     <row r="35">
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>24.97449730403542</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>203.5950988054548</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25172,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,10 +25205,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.89148137931519</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>222.4394153930256</v>
@@ -25369,16 +25369,16 @@
         <v>286.2487377730621</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>179.5927563244066</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25397,10 +25397,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>343.0559825711597</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25409,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>179.4528947272239</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.1170185875869</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H40" t="n">
-        <v>136.5301800721837</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I40" t="n">
         <v>116.6963819301808</v>
@@ -25603,19 +25603,19 @@
         <v>222.4394153930256</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>203.5950988054548</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>232.2550465744657</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>102.456917593819</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H43" t="n">
         <v>150.7696444085454</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>119.3496961040301</v>
+        <v>33.91897797749857</v>
       </c>
       <c r="S43" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>222.4394153930256</v>
@@ -25843,7 +25843,7 @@
         <v>286.2487377730621</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>33.00315325686722</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,10 +25922,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>258.5766819988012</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26029,22 +26029,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>82.29518298001921</v>
+        <v>75.47754439908392</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J46" t="n">
-        <v>2.249572729045425</v>
+        <v>2.24957272904544</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>833265.3300082042</v>
+        <v>833265.3300082041</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>833265.3300082043</v>
+        <v>833265.3300082042</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>833265.3300082042</v>
+        <v>833265.3300082041</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>833265.3300082041</v>
+        <v>833265.330008204</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>833265.3300082043</v>
+        <v>833265.3300082041</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>833265.330008204</v>
+        <v>833265.3300082041</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>833265.3300082042</v>
+        <v>833265.3300082041</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>833265.3300082043</v>
+        <v>833265.3300082041</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>833265.3300082041</v>
+        <v>833265.330008204</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117845</v>
@@ -26323,37 +26323,37 @@
         <v>474489.1846282752</v>
       </c>
       <c r="F2" t="n">
+        <v>474489.1846282753</v>
+      </c>
+      <c r="G2" t="n">
+        <v>474489.1846282754</v>
+      </c>
+      <c r="H2" t="n">
         <v>474489.1846282752</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>474489.1846282752</v>
+      </c>
+      <c r="J2" t="n">
         <v>474489.1846282753</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>474489.1846282753</v>
       </c>
-      <c r="I2" t="n">
-        <v>474489.184628275</v>
-      </c>
-      <c r="J2" t="n">
-        <v>474489.1846282752</v>
-      </c>
-      <c r="K2" t="n">
-        <v>474489.1846282752</v>
-      </c>
       <c r="L2" t="n">
-        <v>474489.1846282752</v>
+        <v>474489.1846282751</v>
       </c>
       <c r="M2" t="n">
-        <v>474489.1846282752</v>
+        <v>474489.1846282753</v>
       </c>
       <c r="N2" t="n">
         <v>474489.1846282752</v>
       </c>
       <c r="O2" t="n">
+        <v>474489.1846282753</v>
+      </c>
+      <c r="P2" t="n">
         <v>474489.1846282752</v>
-      </c>
-      <c r="P2" t="n">
-        <v>474489.1846282751</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>389812.6557155694</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173579.2517190113</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>173579.2517190113</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>173579.2517190113</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>30219.31097578816</v>
+        <v>30998.39735800888</v>
       </c>
       <c r="F4" t="n">
-        <v>30219.31097578815</v>
+        <v>30998.39735800888</v>
       </c>
       <c r="G4" t="n">
-        <v>30219.31097578815</v>
+        <v>30998.39735800888</v>
       </c>
       <c r="H4" t="n">
-        <v>30219.31097578815</v>
+        <v>30998.39735800888</v>
       </c>
       <c r="I4" t="n">
-        <v>30219.31097578816</v>
+        <v>30998.39735800888</v>
       </c>
       <c r="J4" t="n">
-        <v>30219.31097578815</v>
+        <v>30998.39735800888</v>
       </c>
       <c r="K4" t="n">
-        <v>30219.31097578816</v>
+        <v>30998.39735800889</v>
       </c>
       <c r="L4" t="n">
-        <v>30219.31097578816</v>
+        <v>30998.39735800888</v>
       </c>
       <c r="M4" t="n">
-        <v>30219.31097578816</v>
+        <v>30998.39735800888</v>
       </c>
       <c r="N4" t="n">
-        <v>30219.31097578815</v>
+        <v>30998.39735800888</v>
       </c>
       <c r="O4" t="n">
-        <v>30219.31097578816</v>
+        <v>30998.39735800889</v>
       </c>
       <c r="P4" t="n">
-        <v>30219.31097578816</v>
+        <v>30998.39735800888</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>80839.64176874656</v>
       </c>
       <c r="F5" t="n">
+        <v>80839.64176874656</v>
+      </c>
+      <c r="G5" t="n">
         <v>80839.64176874657</v>
-      </c>
-      <c r="G5" t="n">
-        <v>80839.64176874656</v>
       </c>
       <c r="H5" t="n">
         <v>80839.64176874657</v>
@@ -26509,7 +26509,7 @@
         <v>80839.64176874656</v>
       </c>
       <c r="P5" t="n">
-        <v>80839.64176874656</v>
+        <v>80839.64176874654</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-312729.0585851809</v>
+        <v>-313640.5841879958</v>
       </c>
       <c r="C6" t="n">
-        <v>277238.8206293634</v>
+        <v>276327.2950265488</v>
       </c>
       <c r="D6" t="n">
-        <v>277238.8206293638</v>
+        <v>276327.2950265489</v>
       </c>
       <c r="E6" t="n">
-        <v>-26382.423831829</v>
+        <v>-27161.5102140496</v>
       </c>
       <c r="F6" t="n">
-        <v>363430.2318837403</v>
+        <v>362651.1455015199</v>
       </c>
       <c r="G6" t="n">
-        <v>363430.2318837408</v>
+        <v>362651.14550152</v>
       </c>
       <c r="H6" t="n">
-        <v>363430.2318837405</v>
+        <v>362651.1455015197</v>
       </c>
       <c r="I6" t="n">
-        <v>363430.2318837403</v>
+        <v>362651.1455015199</v>
       </c>
       <c r="J6" t="n">
-        <v>187007.0126911475</v>
+        <v>186227.9263089269</v>
       </c>
       <c r="K6" t="n">
-        <v>363430.2318837405</v>
+        <v>362651.1455015199</v>
       </c>
       <c r="L6" t="n">
-        <v>363430.2318837405</v>
+        <v>362651.1455015197</v>
       </c>
       <c r="M6" t="n">
-        <v>263978.0895626619</v>
+        <v>263199.0031804413</v>
       </c>
       <c r="N6" t="n">
-        <v>363430.2318837405</v>
+        <v>362651.1455015198</v>
       </c>
       <c r="O6" t="n">
-        <v>363430.2318837405</v>
+        <v>362651.1455015199</v>
       </c>
       <c r="P6" t="n">
-        <v>363430.2318837404</v>
+        <v>362651.1455015197</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>714.6310981927825</v>
       </c>
       <c r="F3" t="n">
+        <v>714.6310981927825</v>
+      </c>
+      <c r="G3" t="n">
+        <v>714.6310981927826</v>
+      </c>
+      <c r="H3" t="n">
         <v>714.6310981927827</v>
-      </c>
-      <c r="G3" t="n">
-        <v>714.6310981927825</v>
-      </c>
-      <c r="H3" t="n">
-        <v>714.6310981927825</v>
       </c>
       <c r="I3" t="n">
         <v>714.6310981927825</v>
@@ -26777,7 +26777,7 @@
         <v>714.6310981927825</v>
       </c>
       <c r="P3" t="n">
-        <v>714.6310981927825</v>
+        <v>714.6310981927824</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>336.8874339756958</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>46.31167686050486</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>128.2387900191171</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>140.8640393702523</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>119.0630937653842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>253.9320052927417</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>221.0244132772684</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>33.57113583274257</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.0743229399514</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>19.08866629414086</v>
+        <v>286.1156255297959</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>24.62049154535646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>145.207964550352</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H14" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I14" t="n">
-        <v>110.7570468867428</v>
+        <v>110.7570468867427</v>
       </c>
       <c r="J14" t="n">
         <v>243.8328489255867</v>
       </c>
       <c r="K14" t="n">
-        <v>365.4422333939304</v>
+        <v>365.4422333939303</v>
       </c>
       <c r="L14" t="n">
-        <v>453.3634051379199</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M14" t="n">
-        <v>504.4541419921345</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N14" t="n">
-        <v>512.6167374001355</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O14" t="n">
-        <v>484.0494490276552</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P14" t="n">
-        <v>413.1250058653061</v>
+        <v>413.125005865306</v>
       </c>
       <c r="Q14" t="n">
         <v>310.2396743918225</v>
@@ -32023,13 +32023,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S14" t="n">
-        <v>65.46595437213283</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T14" t="n">
-        <v>12.5760708837745</v>
+        <v>12.57607088377449</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H15" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I15" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J15" t="n">
         <v>145.2251743978371</v>
       </c>
       <c r="K15" t="n">
-        <v>248.2129541713555</v>
+        <v>248.2129541713554</v>
       </c>
       <c r="L15" t="n">
-        <v>333.752948264469</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M15" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N15" t="n">
-        <v>399.7821650163568</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O15" t="n">
-        <v>365.7225772043763</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P15" t="n">
         <v>293.5246108784658</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.2134290736109</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R15" t="n">
-        <v>95.43696062280223</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S15" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T15" t="n">
-        <v>6.195716785275161</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U15" t="n">
         <v>0.1011270421970919</v>
@@ -32145,25 +32145,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.288679029527969</v>
+        <v>1.288679029527968</v>
       </c>
       <c r="H16" t="n">
         <v>11.45752809889413</v>
       </c>
       <c r="I16" t="n">
-        <v>38.75409299707747</v>
+        <v>38.75409299707746</v>
       </c>
       <c r="J16" t="n">
-        <v>91.10960738762738</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K16" t="n">
         <v>149.7210727033403</v>
       </c>
       <c r="L16" t="n">
-        <v>191.5914258990946</v>
+        <v>191.5914258990945</v>
       </c>
       <c r="M16" t="n">
-        <v>202.0062955104615</v>
+        <v>202.0062955104614</v>
       </c>
       <c r="N16" t="n">
         <v>197.2030373094937</v>
@@ -32178,16 +32178,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R16" t="n">
-        <v>57.94369527313938</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S16" t="n">
-        <v>22.45816090550105</v>
+        <v>22.45816090550104</v>
       </c>
       <c r="T16" t="n">
-        <v>5.506174035255865</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07029158342879838</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.872888836955907</v>
+        <v>2.872888836955908</v>
       </c>
       <c r="H17" t="n">
-        <v>29.42197280147469</v>
+        <v>29.4219728014747</v>
       </c>
       <c r="I17" t="n">
         <v>110.7570468867427</v>
@@ -32239,16 +32239,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L17" t="n">
-        <v>453.3634051379197</v>
+        <v>453.3634051379198</v>
       </c>
       <c r="M17" t="n">
-        <v>504.4541419921343</v>
+        <v>504.4541419921344</v>
       </c>
       <c r="N17" t="n">
-        <v>512.6167374001353</v>
+        <v>512.6167374001354</v>
       </c>
       <c r="O17" t="n">
-        <v>484.049449027655</v>
+        <v>484.0494490276551</v>
       </c>
       <c r="P17" t="n">
         <v>413.125005865306</v>
@@ -32260,13 +32260,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S17" t="n">
-        <v>65.4659543721328</v>
+        <v>65.46595437213281</v>
       </c>
       <c r="T17" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2298311069564725</v>
+        <v>0.2298311069564726</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.537131041395796</v>
+        <v>1.537131041395797</v>
       </c>
       <c r="H18" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I18" t="n">
-        <v>52.92315208314475</v>
+        <v>52.92315208314476</v>
       </c>
       <c r="J18" t="n">
         <v>145.2251743978371</v>
@@ -32321,13 +32321,13 @@
         <v>333.7529482644689</v>
       </c>
       <c r="M18" t="n">
-        <v>389.4739485150664</v>
+        <v>389.4739485150665</v>
       </c>
       <c r="N18" t="n">
-        <v>399.7821650163567</v>
+        <v>399.7821650163568</v>
       </c>
       <c r="O18" t="n">
-        <v>365.7225772043761</v>
+        <v>365.7225772043762</v>
       </c>
       <c r="P18" t="n">
         <v>293.5246108784658</v>
@@ -32336,13 +32336,13 @@
         <v>196.2134290736108</v>
       </c>
       <c r="R18" t="n">
-        <v>95.4369606228022</v>
+        <v>95.43696062280222</v>
       </c>
       <c r="S18" t="n">
-        <v>28.55153491364558</v>
+        <v>28.55153491364559</v>
       </c>
       <c r="T18" t="n">
-        <v>6.195716785275159</v>
+        <v>6.19571678527516</v>
       </c>
       <c r="U18" t="n">
         <v>0.1011270421970919</v>
@@ -32391,7 +32391,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J19" t="n">
-        <v>91.10960738762735</v>
+        <v>91.10960738762736</v>
       </c>
       <c r="K19" t="n">
         <v>149.7210727033403</v>
@@ -32415,16 +32415,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R19" t="n">
-        <v>57.94369527313936</v>
+        <v>57.94369527313937</v>
       </c>
       <c r="S19" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T19" t="n">
-        <v>5.506174035255863</v>
+        <v>5.506174035255864</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07029158342879835</v>
+        <v>0.07029158342879836</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.872888836955907</v>
+        <v>2.872888836955908</v>
       </c>
       <c r="H20" t="n">
-        <v>29.42197280147469</v>
+        <v>29.4219728014747</v>
       </c>
       <c r="I20" t="n">
-        <v>110.7570468867427</v>
+        <v>110.7570468867428</v>
       </c>
       <c r="J20" t="n">
         <v>243.8328489255867</v>
       </c>
       <c r="K20" t="n">
-        <v>365.4422333939303</v>
+        <v>365.4422333939304</v>
       </c>
       <c r="L20" t="n">
-        <v>453.3634051379197</v>
+        <v>453.3634051379199</v>
       </c>
       <c r="M20" t="n">
-        <v>504.4541419921343</v>
+        <v>504.4541419921345</v>
       </c>
       <c r="N20" t="n">
-        <v>512.6167374001353</v>
+        <v>512.6167374001355</v>
       </c>
       <c r="O20" t="n">
-        <v>484.049449027655</v>
+        <v>484.0494490276552</v>
       </c>
       <c r="P20" t="n">
-        <v>413.125005865306</v>
+        <v>413.1250058653061</v>
       </c>
       <c r="Q20" t="n">
         <v>310.2396743918225</v>
@@ -32497,13 +32497,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S20" t="n">
-        <v>65.4659543721328</v>
+        <v>65.46595437213283</v>
       </c>
       <c r="T20" t="n">
-        <v>12.57607088377449</v>
+        <v>12.5760708837745</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2298311069564725</v>
+        <v>0.2298311069564726</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.537131041395796</v>
+        <v>1.537131041395797</v>
       </c>
       <c r="H21" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I21" t="n">
-        <v>52.92315208314475</v>
+        <v>52.92315208314476</v>
       </c>
       <c r="J21" t="n">
         <v>145.2251743978371</v>
       </c>
       <c r="K21" t="n">
-        <v>248.2129541713554</v>
+        <v>248.2129541713555</v>
       </c>
       <c r="L21" t="n">
-        <v>333.7529482644689</v>
+        <v>333.752948264469</v>
       </c>
       <c r="M21" t="n">
-        <v>389.4739485150664</v>
+        <v>389.4739485150665</v>
       </c>
       <c r="N21" t="n">
-        <v>399.7821650163567</v>
+        <v>399.7821650163568</v>
       </c>
       <c r="O21" t="n">
-        <v>365.7225772043761</v>
+        <v>365.7225772043763</v>
       </c>
       <c r="P21" t="n">
         <v>293.5246108784658</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.2134290736108</v>
+        <v>196.2134290736109</v>
       </c>
       <c r="R21" t="n">
-        <v>95.4369606228022</v>
+        <v>95.43696062280223</v>
       </c>
       <c r="S21" t="n">
-        <v>28.55153491364558</v>
+        <v>28.55153491364559</v>
       </c>
       <c r="T21" t="n">
-        <v>6.195716785275159</v>
+        <v>6.195716785275161</v>
       </c>
       <c r="U21" t="n">
         <v>0.1011270421970919</v>
@@ -32619,25 +32619,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.288679029527968</v>
+        <v>1.288679029527969</v>
       </c>
       <c r="H22" t="n">
         <v>11.45752809889413</v>
       </c>
       <c r="I22" t="n">
-        <v>38.75409299707746</v>
+        <v>38.75409299707747</v>
       </c>
       <c r="J22" t="n">
-        <v>91.10960738762735</v>
+        <v>91.10960738762738</v>
       </c>
       <c r="K22" t="n">
         <v>149.7210727033403</v>
       </c>
       <c r="L22" t="n">
-        <v>191.5914258990945</v>
+        <v>191.5914258990946</v>
       </c>
       <c r="M22" t="n">
-        <v>202.0062955104614</v>
+        <v>202.0062955104615</v>
       </c>
       <c r="N22" t="n">
         <v>197.2030373094937</v>
@@ -32652,16 +32652,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R22" t="n">
-        <v>57.94369527313936</v>
+        <v>57.94369527313938</v>
       </c>
       <c r="S22" t="n">
-        <v>22.45816090550104</v>
+        <v>22.45816090550105</v>
       </c>
       <c r="T22" t="n">
-        <v>5.506174035255863</v>
+        <v>5.506174035255865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07029158342879835</v>
+        <v>0.07029158342879838</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34366,28 +34366,28 @@
         <v>110.7570468867427</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8328489255867</v>
+        <v>243.8328489255866</v>
       </c>
       <c r="K44" t="n">
-        <v>365.4422333939303</v>
+        <v>365.4422333939302</v>
       </c>
       <c r="L44" t="n">
-        <v>453.3634051379197</v>
+        <v>453.3634051379196</v>
       </c>
       <c r="M44" t="n">
-        <v>504.4541419921343</v>
+        <v>504.4541419921342</v>
       </c>
       <c r="N44" t="n">
-        <v>512.6167374001353</v>
+        <v>512.6167374001352</v>
       </c>
       <c r="O44" t="n">
-        <v>484.049449027655</v>
+        <v>484.0494490276549</v>
       </c>
       <c r="P44" t="n">
-        <v>413.125005865306</v>
+        <v>413.1250058653059</v>
       </c>
       <c r="Q44" t="n">
-        <v>310.2396743918225</v>
+        <v>310.2396743918224</v>
       </c>
       <c r="R44" t="n">
         <v>180.4641034044317</v>
@@ -34439,10 +34439,10 @@
         <v>1.537131041395796</v>
       </c>
       <c r="H45" t="n">
-        <v>14.84544979453309</v>
+        <v>14.84544979453308</v>
       </c>
       <c r="I45" t="n">
-        <v>52.92315208314475</v>
+        <v>52.92315208314474</v>
       </c>
       <c r="J45" t="n">
         <v>145.2251743978371</v>
@@ -34451,7 +34451,7 @@
         <v>248.2129541713554</v>
       </c>
       <c r="L45" t="n">
-        <v>333.7529482644689</v>
+        <v>333.7529482644688</v>
       </c>
       <c r="M45" t="n">
         <v>389.4739485150664</v>
@@ -34463,19 +34463,19 @@
         <v>365.7225772043761</v>
       </c>
       <c r="P45" t="n">
-        <v>293.5246108784658</v>
+        <v>293.5246108784657</v>
       </c>
       <c r="Q45" t="n">
         <v>196.2134290736108</v>
       </c>
       <c r="R45" t="n">
-        <v>95.4369606228022</v>
+        <v>95.43696062280218</v>
       </c>
       <c r="S45" t="n">
         <v>28.55153491364558</v>
       </c>
       <c r="T45" t="n">
-        <v>6.195716785275159</v>
+        <v>6.195716785275158</v>
       </c>
       <c r="U45" t="n">
         <v>0.1011270421970919</v>
@@ -34518,13 +34518,13 @@
         <v>1.288679029527968</v>
       </c>
       <c r="H46" t="n">
-        <v>11.45752809889413</v>
+        <v>11.45752809889412</v>
       </c>
       <c r="I46" t="n">
-        <v>38.75409299707746</v>
+        <v>38.75409299707745</v>
       </c>
       <c r="J46" t="n">
-        <v>91.10960738762735</v>
+        <v>91.10960738762734</v>
       </c>
       <c r="K46" t="n">
         <v>149.7210727033403</v>
@@ -34545,19 +34545,19 @@
         <v>155.8598709894553</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.9092958271102</v>
+        <v>107.9092958271101</v>
       </c>
       <c r="R46" t="n">
-        <v>57.94369527313936</v>
+        <v>57.94369527313935</v>
       </c>
       <c r="S46" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T46" t="n">
-        <v>5.506174035255863</v>
+        <v>5.506174035255862</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07029158342879835</v>
+        <v>0.07029158342879833</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>144.4785830715792</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K12" t="n">
-        <v>374.836752209575</v>
+        <v>110.3715151969964</v>
       </c>
       <c r="L12" t="n">
-        <v>566.0389137880538</v>
+        <v>195.1985684845947</v>
       </c>
       <c r="M12" t="n">
         <v>247.3399145930481</v>
       </c>
       <c r="N12" t="n">
-        <v>268.4404529330234</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O12" t="n">
-        <v>228.4481011077059</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P12" t="n">
-        <v>478.0129721040727</v>
+        <v>371.5266644880105</v>
       </c>
       <c r="Q12" t="n">
         <v>266.3089427234383</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K14" t="n">
-        <v>469.4977949201146</v>
+        <v>469.4977949201145</v>
       </c>
       <c r="L14" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M14" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N14" t="n">
-        <v>720.5505982155288</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O14" t="n">
-        <v>634.7514188687138</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P14" t="n">
-        <v>503.6907182815192</v>
+        <v>503.6907182815191</v>
       </c>
       <c r="Q14" t="n">
         <v>300.2489751772777</v>
       </c>
       <c r="R14" t="n">
-        <v>30.59498546328206</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.38754773117043</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K15" t="n">
-        <v>374.8367522095751</v>
+        <v>374.836752209575</v>
       </c>
       <c r="L15" t="n">
-        <v>566.0389137880539</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M15" t="n">
-        <v>247.3399145930482</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N15" t="n">
-        <v>268.4404529330235</v>
+        <v>268.4404529330234</v>
       </c>
       <c r="O15" t="n">
-        <v>354.5391364481137</v>
+        <v>223.1263327599317</v>
       </c>
       <c r="P15" t="n">
-        <v>478.0129721040727</v>
+        <v>159.5502034641355</v>
       </c>
       <c r="Q15" t="n">
-        <v>266.3089427234385</v>
+        <v>250.4794513015583</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>127.4515808774575</v>
+        <v>127.4515808774574</v>
       </c>
       <c r="L16" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M16" t="n">
         <v>241.590172472302</v>
@@ -35823,7 +35823,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.7472525754158</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>231.8835595709741</v>
+        <v>231.8835595709742</v>
       </c>
       <c r="K17" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L17" t="n">
-        <v>635.2582047183829</v>
+        <v>635.258204718383</v>
       </c>
       <c r="M17" t="n">
-        <v>723.6214422576941</v>
+        <v>723.6214422576942</v>
       </c>
       <c r="N17" t="n">
-        <v>720.5505982155286</v>
+        <v>720.5505982155287</v>
       </c>
       <c r="O17" t="n">
-        <v>634.7514188687136</v>
+        <v>634.7514188687137</v>
       </c>
       <c r="P17" t="n">
         <v>503.6907182815191</v>
@@ -35905,7 +35905,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R17" t="n">
-        <v>30.594985463282</v>
+        <v>30.59498546328203</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.38754773117037</v>
+        <v>18.3875477311704</v>
       </c>
       <c r="K18" t="n">
-        <v>110.3715151969964</v>
+        <v>374.836752209575</v>
       </c>
       <c r="L18" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M18" t="n">
-        <v>713.044978343048</v>
+        <v>427.9504003134634</v>
       </c>
       <c r="N18" t="n">
-        <v>268.4404529330234</v>
+        <v>747.782827276577</v>
       </c>
       <c r="O18" t="n">
-        <v>363.3765974465423</v>
+        <v>223.1263327599318</v>
       </c>
       <c r="P18" t="n">
-        <v>478.0129721040727</v>
+        <v>159.5502034641355</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.23165498758928</v>
+        <v>56.23165498758931</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L19" t="n">
-        <v>219.1814511594106</v>
+        <v>219.1814511594107</v>
       </c>
       <c r="M19" t="n">
         <v>241.590172472302</v>
@@ -36060,7 +36060,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.74725257541577</v>
+        <v>21.74725257541579</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>231.8835595709741</v>
+        <v>231.8835595709742</v>
       </c>
       <c r="K20" t="n">
-        <v>469.4977949201145</v>
+        <v>469.4977949201146</v>
       </c>
       <c r="L20" t="n">
-        <v>635.2582047183829</v>
+        <v>635.258204718383</v>
       </c>
       <c r="M20" t="n">
-        <v>723.6214422576941</v>
+        <v>723.6214422576942</v>
       </c>
       <c r="N20" t="n">
-        <v>720.5505982155286</v>
+        <v>720.5505982155288</v>
       </c>
       <c r="O20" t="n">
-        <v>634.7514188687136</v>
+        <v>634.7514188687138</v>
       </c>
       <c r="P20" t="n">
-        <v>503.6907182815191</v>
+        <v>503.6907182815192</v>
       </c>
       <c r="Q20" t="n">
         <v>300.2489751772777</v>
       </c>
       <c r="R20" t="n">
-        <v>30.594985463282</v>
+        <v>30.59498546328206</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.38754773117037</v>
+        <v>18.38754773117043</v>
       </c>
       <c r="K21" t="n">
-        <v>110.3715151969964</v>
+        <v>359.0072607876941</v>
       </c>
       <c r="L21" t="n">
-        <v>195.1985684845947</v>
+        <v>566.0389137880539</v>
       </c>
       <c r="M21" t="n">
-        <v>713.044978343048</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7828272765769</v>
+        <v>268.4404529330235</v>
       </c>
       <c r="O21" t="n">
-        <v>573.3373370463848</v>
+        <v>223.1263327599318</v>
       </c>
       <c r="P21" t="n">
-        <v>159.5502034641355</v>
+        <v>159.5502034641356</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.23165498758928</v>
+        <v>266.3089427234385</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>127.4515808774574</v>
+        <v>127.4515808774575</v>
       </c>
       <c r="L22" t="n">
-        <v>219.1814511594106</v>
+        <v>219.1814511594107</v>
       </c>
       <c r="M22" t="n">
         <v>241.590172472302</v>
@@ -36297,7 +36297,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.74725257541577</v>
+        <v>21.7472525754158</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.38754773117037</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K24" t="n">
-        <v>110.3715151969964</v>
+        <v>285.2938021108086</v>
       </c>
       <c r="L24" t="n">
         <v>195.1985684845947</v>
@@ -36446,16 +36446,16 @@
         <v>713.044978343048</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7828272765769</v>
+        <v>268.4404529330234</v>
       </c>
       <c r="O24" t="n">
-        <v>573.3373370463853</v>
+        <v>223.1263327599317</v>
       </c>
       <c r="P24" t="n">
-        <v>159.5502034641355</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.23165498758928</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>110.3715151969964</v>
       </c>
       <c r="L27" t="n">
-        <v>566.0389137880538</v>
+        <v>195.1985684845947</v>
       </c>
       <c r="M27" t="n">
         <v>713.044978343048</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2911669828415</v>
+        <v>268.4404529330234</v>
       </c>
       <c r="O27" t="n">
-        <v>616.9886520366613</v>
+        <v>524.1396550141525</v>
       </c>
       <c r="P27" t="n">
-        <v>159.5502034641355</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.23165498758928</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>231.8835595709741</v>
+        <v>231.8835595709745</v>
       </c>
       <c r="K29" t="n">
         <v>469.4977949201145</v>
@@ -36838,7 +36838,7 @@
         <v>635.2582047183829</v>
       </c>
       <c r="M29" t="n">
-        <v>723.6214422576943</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N29" t="n">
         <v>720.5505982155286</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.38754773117037</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K30" t="n">
-        <v>110.3715151969964</v>
+        <v>110.8934339496449</v>
       </c>
       <c r="L30" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M30" t="n">
-        <v>713.044978343048</v>
+        <v>247.3399145930481</v>
       </c>
       <c r="N30" t="n">
-        <v>268.4404529330234</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O30" t="n">
-        <v>616.9886520366613</v>
+        <v>223.1263327599317</v>
       </c>
       <c r="P30" t="n">
-        <v>224.4009175139535</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q30" t="n">
         <v>56.23165498758928</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.38754773117037</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K33" t="n">
         <v>110.3715151969964</v>
@@ -37157,13 +37157,13 @@
         <v>713.044978343048</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7828272765769</v>
+        <v>653.4400275826844</v>
       </c>
       <c r="O33" t="n">
-        <v>573.3373370463853</v>
+        <v>223.1263327599317</v>
       </c>
       <c r="P33" t="n">
-        <v>159.5502034641355</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q33" t="n">
         <v>56.23165498758928</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.38754773117037</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K36" t="n">
         <v>110.3715151969964</v>
       </c>
       <c r="L36" t="n">
-        <v>195.1985684845947</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M36" t="n">
-        <v>669.3936633527719</v>
+        <v>247.3399145930481</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7828272765769</v>
+        <v>538.2274582933759</v>
       </c>
       <c r="O36" t="n">
-        <v>616.9886520366613</v>
+        <v>223.1263327599317</v>
       </c>
       <c r="P36" t="n">
-        <v>159.5502034641355</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.23165498758928</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>18.38754773117037</v>
       </c>
       <c r="K39" t="n">
-        <v>110.3715151969964</v>
+        <v>142.1197508435127</v>
       </c>
       <c r="L39" t="n">
-        <v>566.0389137880538</v>
+        <v>195.1985684845947</v>
       </c>
       <c r="M39" t="n">
-        <v>247.3399145930481</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N39" t="n">
         <v>747.7828272765769</v>
       </c>
       <c r="O39" t="n">
-        <v>616.9886520366613</v>
+        <v>223.1263327599317</v>
       </c>
       <c r="P39" t="n">
-        <v>210.7636069203999</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q39" t="n">
         <v>56.23165498758928</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.38754773117037</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K42" t="n">
         <v>110.3715151969964</v>
@@ -37865,7 +37865,7 @@
         <v>195.1985684845947</v>
       </c>
       <c r="M42" t="n">
-        <v>669.3936633527719</v>
+        <v>543.3026280123629</v>
       </c>
       <c r="N42" t="n">
         <v>747.7828272765769</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>231.8835595709745</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K44" t="n">
-        <v>469.4977949201145</v>
+        <v>469.4977949201144</v>
       </c>
       <c r="L44" t="n">
-        <v>635.2582047183829</v>
+        <v>635.2582047183828</v>
       </c>
       <c r="M44" t="n">
-        <v>723.6214422576941</v>
+        <v>723.621442257694</v>
       </c>
       <c r="N44" t="n">
-        <v>720.5505982155286</v>
+        <v>720.5505982155285</v>
       </c>
       <c r="O44" t="n">
         <v>634.7514188687136</v>
       </c>
       <c r="P44" t="n">
-        <v>503.6907182815191</v>
+        <v>503.690718281519</v>
       </c>
       <c r="Q44" t="n">
-        <v>300.2489751772777</v>
+        <v>300.2489751772776</v>
       </c>
       <c r="R44" t="n">
-        <v>30.594985463282</v>
+        <v>30.59498546328197</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>18.38754773117037</v>
       </c>
       <c r="K45" t="n">
-        <v>110.3715151969964</v>
+        <v>374.836752209575</v>
       </c>
       <c r="L45" t="n">
         <v>195.1985684845947</v>
       </c>
       <c r="M45" t="n">
-        <v>713.044978343048</v>
+        <v>713.0449783430479</v>
       </c>
       <c r="N45" t="n">
         <v>747.7828272765769</v>
       </c>
       <c r="O45" t="n">
-        <v>573.3373370463853</v>
+        <v>223.1263327599316</v>
       </c>
       <c r="P45" t="n">
-        <v>159.5502034641355</v>
+        <v>159.5502034641354</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.23165498758928</v>
+        <v>141.9774222614641</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,16 +38184,16 @@
         <v>241.590172472302</v>
       </c>
       <c r="N46" t="n">
-        <v>241.3352096887223</v>
+        <v>241.3352096887222</v>
       </c>
       <c r="O46" t="n">
-        <v>206.7340511058657</v>
+        <v>206.7340511058656</v>
       </c>
       <c r="P46" t="n">
-        <v>153.1384302543488</v>
+        <v>153.1384302543487</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.74725257541577</v>
+        <v>21.74725257541574</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
